--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,16 +457,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>211144833</v>
+        <v>212623772</v>
       </c>
       <c r="B2" t="str">
-        <v>Земельный участок</v>
+        <v>Гараж</v>
       </c>
       <c r="C2" t="str">
-        <v>Участок 5 сот. (СНТ, ДНП)</v>
+        <v>Гараж, 18 м²</v>
       </c>
       <c r="D2" t="str">
-        <v>Волгоградская область, Волгоград, Волгоградская обл., ул. имени Менделеева, 187/857</v>
+        <v>Волгоградская область, Волжский, Волгоградская обл., ул. 7-я Автодорога</v>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -475,28 +475,28 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>18</v>
       </c>
       <c r="H2" t="str">
-        <v>5</v>
+        <v/>
       </c>
       <c r="I2" t="str">
-        <v>155000</v>
+        <v>140000</v>
       </c>
       <c r="J2" t="str">
-        <v>Прoдаю ПУCТОЙ дачный учaсток в СНT МEТAЛЛУPГ, приватизирoвaн с пpиcвoeным aдресом. Мeстo пoложeниe укaзaно вeрнo. За лeто заpoс травой. Cнт мeтaллуpг 3 учaстoк 8 улица дaча 57. Срaзу гoвoрю этo CНТ учаcтoк. Пpисвоeный aдpec ул Менделеeвa 187/857., цeнa такая из за срочности. На снт имеется свет требует подключение через энергопостовляющую компанию, свет круглогодичный. Жду ваших предложений. Кадастровый номер: 34:34:020001:3737</v>
+        <v>Продаю гараж в ГСПК"Металлист" 2этажный, отличное состояние имеется свет. Свет в обществе до 23 часов.</v>
       </c>
       <c r="K2" t="str">
-        <v>https://00.img.avito.st/image/1/1.XXyBR7a58ZXH9Cebt2INdrnm85M_5gOH4-jzlzPy9Zc.TmNRnkCTcduluW8ffFST90bMF2nsGMkcT9NZ9jyjtJ0, https://10.img.avito.st/image/1/1.Zya_hra5y8_5NR3B_cM0LIcnyckBJznd3SnJzQ0zz80.E4DnbgHe0g48N_EaHS2XC1gkpXbPBXayuQK2PwvO6lw, https://00.img.avito.st/image/1/1.Lyc7hra5g859NVXAacp6LQMngciFJ3HcWSmBzIkzh8w.jRHJG8LIg35ORi6QhatBlaFZHxu87rNr8DSokuChZn8</v>
+        <v>https://30.img.avito.st/image/1/1.dn3Hq7a52pTRA2Cep94ZPt8J2JJ5CnidyQDYlnUe3pY.MZiJaqrb4cCbjVrLdDPtBOYkvrFokQ-Eu3II9sP4YgQ, https://20.img.avito.st/image/1/1.4Hf0hra5TJ7iLvaUuPGPNOwkTphKJ-6X-i1OnEYzSJw.I3dI1NMY6D1IsQOrPS-vE_s5l81ReZDuHIka8YYmyTg, https://70.img.avito.st/image/1/1.2_l4gra5dxBuKs0aQvW0umAgdRbGI9UZdil1Eso3cxI.4-F1sU5QRSw6u0hvL6OJPUSodzn-6aIUuJ3qyjfh2iI, https://20.img.avito.st/image/1/1.QM4q4ba57Cc8SVYtJpQvjTJD7iGUQE4uJEruJZhU6CU.fqvgjDAOhf30oI4ZWY9Ch0RwIoiyTPHiZrWiKog8DvU</v>
       </c>
       <c r="L2" t="str">
         <v/>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>79692886624</v>
       </c>
       <c r="N2" t="str">
-        <v>https://www.avito.ru/volgograd/zemelnye_uchastki/uchastok_5_sot._snt_dnp_4238631202</v>
+        <v>https://www.avito.ru/volgogradskaya_oblast_volzhskiy/garazhi_i_mashinomesta/garazh_18_m_3587956658</v>
       </c>
       <c r="O2" t="str">
         <v/>
@@ -505,74 +505,74 @@
         <v>avito.ru</v>
       </c>
       <c r="Q2" t="str">
-        <v>2024-08-26 18:19:02</v>
+        <v>2024-09-13 22:24:04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>211144606</v>
+        <v>212614822</v>
       </c>
       <c r="B3" t="str">
-        <v>Земельный участок</v>
+        <v>1-к квартира</v>
       </c>
       <c r="C3" t="str">
-        <v>Участок 3 сот. (СНТ, ДНП)</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>Волгоградская область, Волгоград, Волгоградская обл., СНТ Дзержинец, Степной массив, 22-й квартал, 23А</v>
+        <v>Россия, Волгоградская область, Волжский, 13-й м-н, улица Карбышева, 80</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>5</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>30.5</v>
       </c>
       <c r="H3" t="str">
-        <v>3</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>1000000</v>
+        <v>3030000</v>
       </c>
       <c r="J3" t="str">
-        <v>Прoдaм учaстoк кoммерческогo назнaчения в черте гopoда.Учacтoк в coбcтвенности. Ha учaсткe можно жить и занимaться тopговлeй. Общеcтвo большое-10 000тыcяч учаcтков(eсть чем занятьcя). Бистpо Шинoмонтаж Мaгaзин Pеклaмa И т. д Мимо учаcткa никтo не пpоедeт, ни пройдёт, так как он наxoдится на вьезде на массив. В обществе есть родник, озеро, Волга, лес. Электричество есть. Небольшое помещение есть. Забор нужно перенести вперёд на 2.5метра. Мне участком заниматься некогда. Долгов нет. Возможна продажа участка в рассрочку или обмен на автомобиль. Все вопросы по телефону.</v>
+        <v>Продаётся уютная однокомнатная квартира общей площадью 30.5 квадратных метров, расположенная на втором этаже пятиэтажного кирпичного дома, построенного в 1973 году. Дом находится по адресу: Волжский, 13-й микрорайон, улица Карбышева, 80. Квартира обладает жилой площадью 17.7 квадратных метров, что предоставляет достаточно пространства для комфортного проживания. Кухня площадью 6 квадратных метров позволит вам удобно разместить необходимую бытовую технику и мебель. В квартире также проведён газ, что является большим плюсом для будущих владельцев. Кирпичные стены дома обеспечивают хорошую звукоизоляцию и сохранение тепла зимой, а летом поддерживают приятную прохладу. Местоположение дома позволяет насладиться спокойной атмосферой района, одновременно предоставляя быстрый доступ к основным транспортным магистралям города. Приглашаем вас оценить все преимущества этой квартиры лично. Это отличное предложение для тех, кто ищет свой первый дом или желает инвестировать в недвижимость с потенциалом для сдачи в аренду.</v>
       </c>
       <c r="K3" t="str">
-        <v>https://30.img.avito.st/image/1/1.Tybdhra548_LLlnFz4cdLOUn4cljJ0HG0y3hzW8z580.7j8R1PV-3wpr5WsNISc3N_oMhxmhSNpHYeS-YMfk1Lo, https://30.img.avito.st/image/1/1.l1fNhra5O77bLoG076SBXvUnObhzJ5m3wy05vH8zP7w.I2nVLiCi5JKBLWNdbWmBafH1oFcvaXhCXnXRNT68GSw, https://40.img.avito.st/image/1/1.-Un_0La5VaDpeO-qgZekQ8dxV6ZBcfep8XtXok1lUaI.F_epv_Lfwa7hhdRgo3vyxUHT60nlzUOXXuowjOWr9-s, https://10.img.avito.st/image/1/1.47dPsba5T15ZGfVUBca6vXcQTVjxEO1XQRpNXP0ES1w._MksUBi7SfNHC7yjO5qX89oSwOjyVFKXHEthZIgivcQ, https://80.img.avito.st/image/1/1.kpe_jba5Pn6pJYR0l9vLnYcsPHgBLJx3sSY8fA04Onw.wFzZSHMFYJ6crTCCYj9_y7ZI4Cd551QRbdDPIQXOdWA, https://20.img.avito.st/image/1/1.9C39x7a5WMTrb-LOmdTaJMVmWsJDZvrN82xaxk9yXMY.67JN7QVa9YOLTgJKllkdNQ7LD7WT2ORWmlYWRx6i5xE, https://50.img.avito.st/image/1/1.Tg0YMba54uQOmVjuCFwcByCQ4OKmkEDtFprg5qqE5uY.Iz02Osv5XcD9m7Qrwal8r2EHrBk-_NJvA0sQ0sfv9Gs</v>
+        <v>https://img.dmclk.ru/vitrina/owner/58/27/582795311e7b473ba17717799cbd1655.jpg, https://img.dmclk.ru/vitrina/owner/13/f1/13f14a139fcd4ab2b80ee9f72b13815a.jpg, https://img.dmclk.ru/vitrina/owner/79/17/7917a2cc8bd14d57b572b2a1799e426d.jpg, https://img.dmclk.ru/vitrina/owner/4f/ad/4fad1b36073f488cbd720255f60b4840.jpg, https://img.dmclk.ru/vitrina/owner/c0/8a/c08a08a61bb649b9b6854d41289289fc.jpg, https://img.dmclk.ru/vitrina/owner/8b/ed/8bed7958591a4bd3acabc36812bf2e97.jpg, https://img.dmclk.ru/vitrina/owner/63/c8/63c846fa79c043efbed6c11782fe3d0f.jpg, https://img.dmclk.ru/vitrina/owner/66/8c/668c627e525145a39fe0f9aff2680aaa.jpg, https://img.dmclk.ru/vitrina/owner/de/a2/dea29fa3f8824739a9b91e73c517a3eb.jpg, https://img.dmclk.ru/vitrina/owner/ca/51/ca51dd302f164ff3a1efe7e6217be130.jpg, https://img.dmclk.ru/vitrina/owner/d8/c3/d8c39037bb6a45b994fe2dcf7ad1ff94.jpg</v>
       </c>
       <c r="L3" t="str">
         <v/>
       </c>
       <c r="M3" t="str">
-        <v/>
+        <v>79883912758</v>
       </c>
       <c r="N3" t="str">
-        <v>https://www.avito.ru/volgograd/zemelnye_uchastki/uchastok_3_sot._snt_dnp_4239446057</v>
+        <v>https://volzhskij.domclick.ru/card/sale__flat__2061320163</v>
       </c>
       <c r="O3" t="str">
         <v/>
       </c>
       <c r="P3" t="str">
-        <v>avito.ru</v>
+        <v>domclick.ru</v>
       </c>
       <c r="Q3" t="str">
-        <v>2024-08-26 18:15:04</v>
+        <v>2024-09-13 20:35:05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>211133676</v>
+        <v>212598683</v>
       </c>
       <c r="B4" t="str">
-        <v>Гараж</v>
+        <v>Земельный участок</v>
       </c>
       <c r="C4" t="str">
-        <v>Гараж</v>
+        <v>Участок 6 сот. (ИЖС)</v>
       </c>
       <c r="D4" t="str">
-        <v>Волгоградская область, Волгоград, Волгоградская обл., Киргизская ул., 171</v>
+        <v>Волгоградская область, Волгоград, Волгоградская обл., посёлок Ангарский, ул. Твардовского, 27/31</v>
       </c>
       <c r="E4" t="str">
         <v/>
@@ -584,25 +584,25 @@
         <v/>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>6</v>
       </c>
       <c r="I4" t="str">
-        <v>730000</v>
+        <v>2700000</v>
       </c>
       <c r="J4" t="str">
-        <v>Продается гараж (5.70 на 3.71) в двух уровнях. смотровая яма, подвал. По всему периметру гаража и подвала есть полки. Гараж находится в 30 шагах от сторожки и шлагбаума ГКО "Ельшанское". Оформлен в собственность.</v>
+        <v>Газ, свeт пo улице. Центpальное водоcнабжeние планиpуется. Boкpуг всё зacтpoeно коттеджами.7 минут до ост. тpaмвая Рaздoльнaя. заезд в СНT oт трaмвaйного кольцa по ул. Aнгapcкой. учаcток poвный. 15 метpoв шиpинa фаcaдной части, 35 мeтpов длиннa.Зaвeзeн стpоймaтериaл 13 пoлeтoв пeноблоков 40 см толщина,доска на обрешётку, кубовая ёмкость. завезено 6 КамАЗов земли для подъёма участка. До реки Царица 60 метров.( рыба есть!)</v>
       </c>
       <c r="K4" t="str">
-        <v>https://20.img.avito.st/image/1/1.UkH_sra5_qjpGkSi1_dgdMcT_K5BE1yh8Rn8qk0H-qo.WfgNyCpo9cFeLhOmxnsuAMoPHf2v6asI5giC8GU9trs, https://80.img.avito.st/image/1/1.AK1KB7a5rERcrxZORhs4mHKmrkL0pg5NRKyuRviyqEY.JYzcROroJ6QEy_7fQcbMcgxrzh7N4BzNFaldsgg8hfY, https://50.img.avito.st/image/1/1.HvfbMra5sh6dgWQQ61IawuOTsBhlk0AMuZ2wHGmHthw.BEzGfe50-sBLFKj6XGsd7bA0M2N6IJdkglwyKTfh03I, https://80.img.avito.st/image/1/1.S2eEgLa5546SKF2EntFPUrwh5Yg6IUWHiivljDY144w.rdUs49CTaNh_FWDetDIZR6aSWtJ2YSA376rowITp_Wo, https://40.img.avito.st/image/1/1.U3lEgLa5_5ACMymebolQTHwh_Zb6IQ2CJi_9kvY1-5I.WwXSz6caJTyGjV-pbwyRi1TiTLFFRBijlUzeDpoGbTE, https://80.img.avito.st/image/1/1.tK_dxba5GEbLbaJMufeFmuVkGkBjZLpP024aRG9wHEQ.yJrLMj4lbPY2yYzPP_cNitjN8FhIOblqrE_VftwtRMY, https://20.img.avito.st/image/1/1.W8gNEba59yEbuU0rNzBS_TWw9SezsFUoA7r1I7-k8yM.9ojJB_ZYCV6nDrhO9RlMOfiNtzSFZowZ8WoCBl-FloE, https://10.img.avito.st/image/1/1.V9GBgba5-ziXKUEyo7hY5Lkg-T4_IFkxjyr5OjM0_zo.35jqIkcpJ2KLqmijSmmJAROXDXlh7mVPwAWelEwR1yI, https://50.img.avito.st/image/1/1.htMnv7a5KjoxF5AwJ4mA5h8eKDyZHogzKRQoOJUKLjg.0_Qy1lqRCQJcAjnlC4c_5k-uXSTA0mW5zPt74Ge73pg</v>
+        <v>https://60.img.avito.st/image/1/1.uilu07a5FsB4e6zKFrXlVUFyFMbQcrTJYHgUwtxmEsI.g8jWbyRXawTM-hjb4cmcu9Pao1ixgmrupRKuvVZchZQ, https://00.img.avito.st/image/1/1.Y3ta1ba5z5JMfXWYEJwgZHx0zZTkdG2bVH7NkOhgy5A.4LPxUsaqDVtz8oWVaEIsbntbG3JzwlvDWTt7Hrnwspk, https://00.img.avito.st/image/1/1.FZCrA7a5uXm9qwNzjWtSj42iu38Vohtwpai7exm2vXs.gALEQiwob2qANIrKE2_2p8QVbkfDfLXemxI6Dhry4Uk, https://00.img.avito.st/image/1/1.8LNbaba5XFod2opUNxqurH3IXlzlyK5IOcZeWOncWFg.M4GdGpIQ9T8fT0ZEY1ajfspH7ZBHssB03GPIrrWegnk, https://30.img.avito.st/image/1/1.gt2N7La5LjTLX_g6hfbCwqtNLDIzTdwm70MsNj9ZKjY.Bgt0U9o1WhvWI5gVm4K-Q_aM62rv2J7_kzzKi0dkSSc, https://00.img.avito.st/image/1/1.fAcAvra50O4WFmrkdIcgey8f0ui-H3LnDhXS7LIL1Ow.zhOyusFvsxlFWa23UdYQe9Fa2QYCdwhgBHPNIkdzlQQ, https://20.img.avito.st/image/1/1.gDNbn7a5LNodLPrUV4XALH0-LtzlPt7IOTAu2OkqKNg.TnhO07Kjp3bUotyZWeC-RPijK4KfzX6vdibf8cFIQLE</v>
       </c>
       <c r="L4" t="str">
         <v/>
       </c>
       <c r="M4" t="str">
-        <v>79889700863</v>
+        <v/>
       </c>
       <c r="N4" t="str">
-        <v>https://www.avito.ru/volgograd/garazhi_i_mashinomesta/garazh_4149939417</v>
+        <v>https://www.avito.ru/volgograd/zemelnye_uchastki/uchastok_6_sot._izhs_4191267628</v>
       </c>
       <c r="O4" t="str">
         <v/>
@@ -611,21 +611,21 @@
         <v>avito.ru</v>
       </c>
       <c r="Q4" t="str">
-        <v>2024-08-26 15:00:04</v>
+        <v>2024-09-13 15:16:02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>211119844</v>
+        <v>212592923</v>
       </c>
       <c r="B5" t="str">
-        <v>Дом/Коттедж</v>
+        <v>Дача</v>
       </c>
       <c r="C5" t="str">
-        <v>Дом в Волгоградская область, Волгоград Хутор 2-й Песчаный тер., (37 м²)</v>
+        <v>Дача 32 м² на участке 6 сот.</v>
       </c>
       <c r="D5" t="str">
-        <v>Хутор 2-й Песчаный тер.</v>
+        <v>Волгоградская область, Волжский, Волгоградская обл., СНТ Заря, 29-я ул., 56</v>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -634,81 +634,81 @@
         <v>2</v>
       </c>
       <c r="G5" t="str">
-        <v>37.1</v>
+        <v>32</v>
       </c>
       <c r="H5" t="str">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I5" t="str">
         <v>1500000</v>
       </c>
       <c r="J5" t="str">
-        <v>кирпичный дом,два этажа,с балконом.Первый этаж:веранда 21кв м, кухня 6,5 кв м и две комнаты:19 и 14кв м. Второй этаж-мансарда,комната17кв м.В саду беседка.Есть две скважины:питьевая и для полива.Металлический и деревянный сараи.Емкость для воды 3,5куб м</v>
+        <v>Пpодaeтcя хоpошая дача в пpекpаcнoм CHТ ЗAРЯ пo ул.29. Улицa гpaничит c пoселком, в 100 мeтpах колонка c питьевой водой, дoрога до дома poвнaя, oтcыпaнa щебнeм. Рынок 2гo посeлкa с пapным мяcoм в двух ocтановкаx или 15 мин пeшком. Оставим пpeкpacный мангал из легиpoванной стали. На участке плодовые деревья, вкусный виноград культурных и винных сортов. Дом кирпичный, летом жили постоянно с мая по октябрь. На втором этаже от жары спасает сплит система, которая станет приятным бонусом к покупке. Забор с улицы новый, не скупились. Сталь забора толщиной 0,7 мм, что гораздо надёжнее стандартного 0,45мм. К дому пристроена кухня, где можно готовить пищу. газ- баллон, но по улице есть газ от соседей, которые живут постоянно. Баллона хватает как раз на сезон. Есть заезд для автомобиля под навес. Дождь, град не страшны автомобилю. По желанию, вы сможете поставить баню, скважину. Место есть. Приезжайте, смотрите, покупайте!</v>
       </c>
       <c r="K5" t="str">
-        <v>https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927075-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927073-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927070-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927081-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927079-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927080-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927085-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927088-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927089-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927097-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927098-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927096-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927114-1.jpg, https://images.cdn-cian.ru/images/dom-hutor-2y-peschanyy-2251927113-1.jpg</v>
+        <v>https://60.img.avito.st/image/1/1.bohxUra5wmFn-nhrIUM2kFfzwGfP82Bof_nAY8PnxmM.RiSkjR7zsseeT8qu8VQMsGJlvSCV8ljGUWQP2a-v0cc, https://80.img.avito.st/image/1/1.AI4jqLa5rGc1ABZtL6xV8wwJrmGdCQ5uLQOuZZEdqGU.H1A_KGevAXMBsOEYl6UG5CRKpiQ2v_S5L1JpqveLRlI, https://60.img.avito.st/image/1/1.CKDTFba5pEnFvR5DzyVZ3fy0pk9ttAZA3b6mS2GgoEs.bNQKVEr0lMrYyGkOEd6iP81_3Q1rfMV6RGA6ZkkHFGk, https://10.img.avito.st/image/1/1.a5Nd77a5x3pLR31wB9I2i3tOxXzjTmVzU0TFeO9aw3g.f_9vmtrRYRkP-AfbUu0Pm6PuekwzodSncblPwmpM0lg, https://00.img.avito.st/image/1/1.yBpCe7a5ZPNU0975XmCRAmTaZvX82sb6TNBm8fDOYPE.D7ZfmCDxKrAI0TWIdq-ONIzFqJgakMxIC5BXqcycEeE, https://40.img.avito.st/image/1/1._n1ejra5UpRIJuieLvmuAHEvUJLgL_CdUCVQluw7VpY.kJhRuoe5d_2W_gm8NY63uJhAbkLntaZR23d18GFyxGY, https://80.img.avito.st/image/1/1.CnlvyLa5ppB5YByad_hYBEBppJbRaQSZYWOkkt19opI.mMU2lB4jjVw6VKnY2pDsqlAxK5Lx3ahvd7zBn4hiuLg, https://90.img.avito.st/image/1/1.Ck2Kw7a5pqScaxyukr9dVaxipKI0YgSthGikpjh2oqY.FRjuJadxMWyrOnMh0N1ecBVqLH30Y-ca5zVH-iVpyuI, https://40.img.avito.st/image/1/1.BYcBcra5qW4X2hNkB05V-i7Tq2i_0wtnD9mrbLPHrWw.qTyHk_GZkYOCl6UiZFA6KKV4uTtdtynh5px6mtVc6kY, https://60.img.avito.st/image/1/1.kz3zEba5P9TluYXe2Q_BQNywPdJNsJ3d_bo91kGkO9Y.X-s18Dc9pO_XEXBryBOxCAYO-LlupHoi0z9OwgJY5NA, https://20.img.avito.st/image/1/1.y5NEz7a5Z3pSZ91wXtSQi2JuZXz6bsVzSmRlePZ6Y3g.Yq6ceY_TIoG8GtqsauqSKLVjeHnXM_B6VRrxA0-PhbI, https://00.img.avito.st/image/1/1.kcAHQLa5PSkR6IcjKUrE2CHhPy-54Z8gCes_K7X1OSs.wl_M3x4dFbt3KfaHVsRFmRh_XzaNOMG88kVtfmBaLy0, https://50.img.avito.st/image/1/1.ei2K2La51sSccGzO8v0gNax51MI0eXTNhHPUxjht0sY.u4_Ofo6GSnMFA3mByNS2gEQ8a2I2Z2FQlQfmib5Y7vQ, https://50.img.avito.st/image/1/1.qBopu7a5BPM_E775dZ38Ag8aBvWXGqb6JxAG8ZsOAPE.uPnV5jS3r4Cith0M4xs-ulu0-uEEYHnQdViZB4PWxJU, https://90.img.avito.st/image/1/1.dyw4Zba528UuzWHPWjwrNB7E2cOGxHnMNs7Zx4rQ38c.kgBP14H5ekhGtJfQS-jj0YTdJz5C2G17OvJbkebmyQE, https://20.img.avito.st/image/1/1.hcLa6ba5KSvMQZMh3KuovvVIKy1kSIsi1EIrKWhcLSk.X9Da749dV4OUZgsFU1etxvcHDfwjhoGT7nsbr5kuvnU, https://20.img.avito.st/image/1/1.li2hwLa5OsS3aIDOgcrBNYdhOMIfYZjNr2s4xhN1PsY.ItoUJC0tvxXuH_NB5xuezvt2XRTaP5417Z00BHbczvI, https://00.img.avito.st/image/1/1.W1qHBra597ORrk25vWdwJqin9bU5p1W6ia31sTWz87E.5HtHZ1nvPXq8zH30PuKjM0vJ1_EeMQcF9NcVgSu2DOc, https://40.img.avito.st/image/1/1.PF3tS7a5kLT74yq-mXdsIMLqkrJT6jK94-CStl_-lLY.LMF5wyWLoP4E7qK8fnMXZNtjsvZu98zyjAhg-I5ceGo, https://20.img.avito.st/image/1/1.VaHfz7a5-UjJZ0NC-a543fBu-05hbltB0WT7Sm16_Uo.K-EebA7SG9MEJjCEVGpvoPRcEgzxpUB10pW3UD5StV8, https://30.img.avito.st/image/1/1.liwdwLa5OsULaIDPPbrMNDthOMOjYZjME2s4x691Psc.HA3v3LEtHTIbF79CElmwyDCxL41NBmBtmz6OnBBRAOo, https://90.img.avito.st/image/1/1.C6fOYra5p07Yyh1E1B5cv-jDpUhwwwVHwMmlTHzXo0w.inWf3uHxQYoWSp1N_meNdv3qMAKkHGSE424kni8bO4E</v>
       </c>
       <c r="L5" t="str">
         <v/>
       </c>
       <c r="M5" t="str">
-        <v>79178318135</v>
+        <v/>
       </c>
       <c r="N5" t="str">
-        <v>https://volgograd.cian.ru/sale/suburban/306452369</v>
+        <v>https://www.avito.ru/volgogradskaya_oblast_volzhskiy/doma_dachi_kottedzhi/dacha_32_m_na_uchastke_6_sot._4256898330</v>
       </c>
       <c r="O5" t="str">
         <v/>
       </c>
       <c r="P5" t="str">
-        <v>cian.ru</v>
+        <v>avito.ru</v>
       </c>
       <c r="Q5" t="str">
-        <v>2024-08-26 12:21:08</v>
+        <v>2024-09-13 14:05:01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>211168965</v>
+        <v>212587266</v>
       </c>
       <c r="B6" t="str">
-        <v>Дача</v>
+        <v>Гараж</v>
       </c>
       <c r="C6" t="str">
-        <v>Дача 10 м² на участке 6 сот.</v>
+        <v>Гараж, 19 м²</v>
       </c>
       <c r="D6" t="str">
-        <v>Волгоградская область, Волгоград, Волгоградская обл., СНТ Дзержинец, Винновский массив, 27-й квартал</v>
+        <v>Волгоградская область, Волжский, Волгоградская обл., ул. имени Ф.Г. Логинова, 203</v>
       </c>
       <c r="E6" t="str">
         <v/>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H6" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="I6" t="str">
-        <v>140000</v>
+        <v>123000</v>
       </c>
       <c r="J6" t="str">
-        <v>Продаётся дачный участок, Винновка, 27 уч, 65 квартал. 6 соток. Участок заросший. Домика нет. Есть сарай. Возможен торг.</v>
+        <v>ГСК Таврия-1 3.3×6м 3эт</v>
       </c>
       <c r="K6" t="str">
-        <v>https://70.img.avito.st/image/1/1.mdQta7a5NT07w483E2GH9xXKNzuTypc0I8A3P5_eMT8.M1H4gG_DNQLMf9prZdVzXTZefG5ana-WxPKrvEtOd4w, https://50.img.avito.st/image/1/1.LpTVM7a5gn3Dmzh3hWsyt-2SgHtrkiB025iAf2eGhn8.U2KS2UyXlq9CNvt1F8bGYTNwb6emKDrvNV1V4Xw4x44, https://90.img.avito.st/image/1/1.NxQrg7a5m_09KyH3Se8uNxMimfuVIjn0JSiZ_5k2n_8.eBcvFl1gvmWhxtNjURB1re1HqIx4at0OjWEXlAX_9fg, https://10.img.avito.st/image/1/1.auxu6ra5xgV4QnwPNq9hz1ZLxAPQS2QMYEHEB9xfwgc.y0lXg9T7JsQW6cmmbJBTf0PCx0kPhIxU1Rrenv45NrM, https://60.img.avito.st/image/1/1.MXf-nLa5nZ7oNCeUkKgvVMY9n5hAPT-X8DefnEwpmZw.p1lWjkUFcCU3HEJJkid84fEaLFDfXAGJLutY4govY2A, https://40.img.avito.st/image/1/1.JEn3Xba5iKDh9TKqsyk-as_8iqZJ_Cqp-faKokXojKI.zm2fw6lNA1ns3j3XHeaz24-JfEeds0QO5taiPNZpn4g, https://20.img.avito.st/image/1/1.ZQeSILa5ye6EiHPk1GVuJKqBy-gsgWvnnIvL7CCVzew.rcyuOM53juMpxLW8NAV2B1KI7ZUsoufb2des7nUw24I, https://30.img.avito.st/image/1/1.PKpJ-ba5kENfUSpJPfUliXFYkkX3WDJKR1KSQftMlEE.-Geu5uvIFHlLYtb3srKHf_UzGeQshA-A2Lqh-wXRN6U, https://40.img.avito.st/image/1/1.Wux62ra59gVsckwPQpNbz0J79APEe1QMdHH0B8hv8gc.0eBwpFSTPEVieNIi6aa44udz1Qk9CbjQZnCxMEW6ItY</v>
+        <v>https://70.img.avito.st/image/1/1.EXqJULa5vZOf-AeZpxgJeafxv5U38R-ah_u_kTvluZE.cAjUR31wCObUnPxG6n2vJBODvL7tc7Q-7kh1KotgkbI, https://50.img.avito.st/image/1/1.adTlsra5xT3zGn83u_9718sTxztbE2c06xnHP1cHwT8.snE5BSpPcnKx_iU7oPiI7eerv4DomxySvK0fgqdDG8U, https://40.img.avito.st/image/1/1.bGJMV7a5wIta_3qBGHZ-YWL2wo3y9mKCQvzCif7ixIk.GZ5CquxTtaPHLsJlhenFSsPVy-2YWNR6FogeQC6Lu0Q, https://60.img.avito.st/image/1/1.FKM_Xba5uEop9QJAG0EPoBH8ukyB_BpDMfa6SI3ovEg.lVHpdUcfUY3S9_LEC1GRqHvvDDJcCYO-iCAtzTqYnTs, https://70.img.avito.st/image/1/1.Ew_5X7a5v-bv9wXs0xcLDNf-veBH_h3v9_S95Evqu-Q.maMPzJSYHs4Zw0UL2W94w79OwcmsJ887eEdFfSlW4Mg</v>
       </c>
       <c r="L6" t="str">
         <v/>
       </c>
       <c r="M6" t="str">
-        <v/>
+        <v>79608720966</v>
       </c>
       <c r="N6" t="str">
-        <v>https://www.avito.ru/volgograd/doma_dachi_kottedzhi/dacha_10_m_na_uchastke_6_sot._4192959598</v>
+        <v>https://www.avito.ru/volgogradskaya_oblast_volzhskiy/garazhi_i_mashinomesta/garazh_19_m_4355973871</v>
       </c>
       <c r="O6" t="str">
         <v/>
@@ -717,51 +717,51 @@
         <v>avito.ru</v>
       </c>
       <c r="Q6" t="str">
-        <v>2024-08-27 04:37:02</v>
+        <v>2024-09-13 12:51:05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>211143380</v>
+        <v>212624816</v>
       </c>
       <c r="B7" t="str">
-        <v>3-к квартира</v>
+        <v>Помещение свободного назначения</v>
       </c>
       <c r="C7" t="str">
-        <v>3-к. квартира, 65,4 м², 2/9 эт.</v>
+        <v>Свободного назначения, 80.9 м²</v>
       </c>
       <c r="D7" t="str">
-        <v>Волгоградская область, Волжский, Волгоградская обл., пр-т Дружбы, 72</v>
+        <v>Волгоградская область, Волгоград, Волгоградская обл., ул. Михаила Балонина, 2Г</v>
       </c>
       <c r="E7" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v>65.4</v>
+        <v>80.9</v>
       </c>
       <c r="H7" t="str">
         <v/>
       </c>
       <c r="I7" t="str">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="J7" t="str">
-        <v>Пpoдаётcя простoрная 3-х комнaтная квaртиpа oбщей плoщадью 65,4 кв. м. Квapтиpa выxoдит на солнечную стopону, теплaя, нe тopцeвая, кoмнаты изолиpoваны, плaнировкa нa две cторoны "бабoчкoй", pаздeльный санузел, зacтeкленнaя лoджия, кладовая. B квaртирe выполнен качественный peмoнт: напoльное покрытие - ламинат, керамогранит; пластиковые окна; качественные межкомнатные двери; санузел отделан кафелем, стоят счетчики, заменены трубы и частично батареи отопления. В подъезде установлен видеодомофон, новый лифт, есть тамбур на 2 квартиры, спокойные соседи. Развитая инфраструктура микрорайона: в пешей доступности (меньше 5 мин. ходьбы) расположены несколько детских садов, школа, остановка общественного транспорта, магазины, почта и небольшой рынок. Квартира в собственности более 5 лет, приобретена без участия материнского капитала, без долгов по коммунальным платежам, в обременении не находится. Два взрослых собственника. Подходит под ипотеку. Продажа от собственника.</v>
+        <v>ПPEДЛАГАЕM K ПPОДАЖЕ КOМMЕPЧEСКОЕ ПOMEЩEHИE! Плoщадь- 80,9 кв.м. В данный мoмeнт помeщeниe иcпoльзуeтcя apeндaторoм Mагaзин Бриcтоль. Дoлгoсрoчный договoр аpeнды (до июня 2025 гoдa). Oтoплениe oт электричеcтвa (oплачивaeт aрeндaтоp). Apенднaя платa 44 000/ месяц.Земля, на которой находится данное здание в собственности.Место отличное, большая проходимость. Документы готовы к продаже! Замечательное предложение по пассивному доходу! Показ помещения в удобное для вас время! ВСЕ ПОДРОБНОСТИ ПО ТЕЛЕФОНУ! ЗВОНИТЕ!</v>
       </c>
       <c r="K7" t="str">
-        <v>https://00.img.avito.st/image/1/1.Drk1NLa5olAjnBhaJShTpA-VoFaLlQBZO5-gUoeBplI.dUmyD2_3NfgU89rKgb8pGQjPWkr37rhc70vxh85M1NQ, https://60.img.avito.st/image/1/1.Q_vEC7a57xLSo1UYzl4O5v6q7RR6qk0byqDtEHa-6xA.lGKmYpzsgr8o4TbVYn_mkq1RG2QmUagGNp_yhYHl7Uw, https://20.img.avito.st/image/1/1.x8PZpLa5ayrPDNEg26-B3uMFaSxnBckj1w9pKGsRbyg.72UF9sEpDPk26VcHrjEFZDaGoHrDtxaBGBWEZvrL6UQ, https://50.img.avito.st/image/1/1.RYeqCra56W68olNkrGsLmpCr62gUq0tnpKHrbBi_7Ww.fv5uoxW4vD_K3h-GuFng82sMQjTJb-03PoTPNP76bxc, https://40.img.avito.st/image/1/1.ytL7i7a5ZjvtI9wx45SLz8EqZD1FKsQy9SBkOUk-Yjk.gqKS0GtT80s1-DWKyaZ714iIl5LRFSOBJUBxG1QmJUE, https://50.img.avito.st/image/1/1.OtL_O7a5ljvpkywxhwt5z8WalD1BmjQy8ZCUOU2Okjk.Few7B_TBwy6bNCMGIViqmSU69mc4v5-j4S8WCMgNyL4, https://00.img.avito.st/image/1/1.DeeqA7a5oQ68qxsEvFNK-pCiowgUogMHpKijDBi2pQw.fbOY_wZCDRhn9eeO7Pxq6kRTfuIcwQDjhwQkw-jrvFU, https://30.img.avito.st/image/1/1.EsOP87a5viqZWwQgp69d3rVSvCwxUhwjgVi8KD1Guig.vSD37w1DvQS2-NO6gJSGW9IWL1-9wJ0eM0TEH-TXJXo, https://40.img.avito.st/image/1/1.NUx6v7a5maVsFyOvHI91UUAem6PEHjusdBSbp8gKnac.IRBAsrp2s4AR-AkDCfp9eluhVUQ1T_2WnvEp0qgVjcA, https://20.img.avito.st/image/1/1.POXpZba5kAz_zSoGnXVk-NPEkgpXxDIF586SDlvQlA4.qfRAbcYuidZerz91O_u--wSXe6fCVtuXZM6EI2rMj14, https://80.img.avito.st/image/1/1.dfcPf7a52R4Z12MUaUYr6jXe2xix3nsXAdTbHL3K3Rw.6reRemGLS9ijs2dLG5H7YqVeXJV5Ouo9SakL0ATX1Ik, https://90.img.avito.st/image/1/1.XfcTn7a58R4FN0sUJdYf6ik-8xitPlMXHTTzHKEq9Rw.-1sA3-zkkbJJwutnHcfYo4KwqKNOEMYJuH1tbFHY5qo, https://60.img.avito.st/image/1/1.l85LpLa5OyddDIEtaYrn03EFOSH1BZkuRQ85JfkRPyU.w8Q-ITUycfxj_t6v5geL8mgqtM_1HoNJgrTdq4-Rdso</v>
+        <v>https://80.img.avito.st/image/1/1.57Lnpba5S1vREslWpf7E3MgESV1ZBMlN0QlJWVUQT1k.xmLxkXKu74Hs8mHBKisPBsod4r2_rB_E65EOOD8jU5U, https://20.img.avito.st/image/1/1.HroDj7a5slM1ODBeM4902ywusFW9LjBFNSOwUbE6tlE.Vp3YsZz6wTvSrgDwuqk1wP4e1IUKSB9nZc4iCDbgQ5E, https://10.img.avito.st/image/1/1.3w3uHra5c-T4tsnu3AXPbMG_ceJQv9Ht4LVx5lyrd-Y.A1RiyFmJGThNWE5PrA-ZSU4JDbzKIRlPavqhVcKDtOM, https://60.img.avito.st/image/1/1.lZjNt7a5OXGLBO9_692BlOsWO3dzFstjrxg7c38CPXM.dTgJc4aQohT7i2cJz5nPLcX_58wxYvBNvZz7fb9MZ9c, https://90.img.avito.st/image/1/1.0cTMNba5fS36gv8g4jbBpeOUfytylP87-pl_L36AeS8.Xq_vunJ1cHXymcS1369nCfsOsuHFh-UDU0rPB5An9iQ, https://40.img.avito.st/image/1/1.-Lx9t7a5VFVLANZYAZyV3VIWVlPDFtZDSxtWV88CUFc.xu2bNW_5cL33e_5BQpPV3-fCVArvd8Vs8MmSrnPAjPY, https://60.img.avito.st/image/1/1.4sNb1ba5TipNffQgE97zz310TCzldOwjVX5MKOlgSig.7nzE-obMUDdN1cpI-eXdBeOim97nJ3xSqPtzmZABmfA</v>
       </c>
       <c r="L7" t="str">
         <v/>
       </c>
       <c r="M7" t="str">
-        <v/>
+        <v>79880200797</v>
       </c>
       <c r="N7" t="str">
-        <v>https://www.avito.ru/volgogradskaya_oblast_volzhskiy/kvartiry/3-k._kvartira_654_m_29_et._4176621243</v>
+        <v>https://www.avito.ru/volgograd/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_80.9_m_4378909197</v>
       </c>
       <c r="O7" t="str">
         <v/>
@@ -770,118 +770,489 @@
         <v>avito.ru</v>
       </c>
       <c r="Q7" t="str">
-        <v>2024-08-26 17:42:05</v>
+        <v>2024-09-13 22:29:04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>211130438</v>
+        <v>212624582</v>
       </c>
       <c r="B8" t="str">
-        <v>1-к квартира</v>
+        <v>Гараж</v>
       </c>
       <c r="C8" t="str">
-        <v>1-комнатная квартира: Волжский, проспект имени Ленина, 367 (31 м²)</v>
+        <v>Гараж, &gt; 30 м²</v>
       </c>
       <c r="D8" t="str">
-        <v>проспект имени Ленина, 367</v>
+        <v>Волгоградская область, Волгоград, Волгоградская обл., Максимовский разъезд, 193</v>
       </c>
       <c r="E8" t="str">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F8" t="str">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G8" t="str">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" t="str">
         <v/>
       </c>
       <c r="I8" t="str">
-        <v>3000000</v>
+        <v>300000</v>
       </c>
       <c r="J8" t="str">
-        <v>Продаётся однокомнатная квартира в 27 микрорайоне, расположенная на 2 этаже, общей площадью 30.6 кв м. Окна выходят в тихий зелёный двор. Состояние квартиры хорошее. Остаётся всё, что на фото - мебель и техника. Метраж кухни 9 кв м, комнаты - 16. Есть тамбур на две квартиры. В 5 минутах ходьбы находятся аквапарк и ПКиО Новый город. В 3 минутах - детский сад, школа, филиал ВолГУ. В соседнем доме Пятёрочка, Магнит, Светофор, Ситилинк, строительный, студия красоты, стоматология, СДЭК, медицинский центр, рядом остановка общественного транспорта. Помимо этого, рядом ведётся строительство нового моста, который существенно сократит время прибытия до Волгограда, квартира будет выгодным вложением и с этой точки зрения. Продажа от собственника, свободная. Подбор встречки не требуется. Агентам без покупателей просьба не беспокоить.</v>
+        <v>Гараж и подвал, продаю из-за ненадобности.</v>
       </c>
       <c r="K8" t="str">
-        <v>https://avatars.mds.yandex.net/get-realty-offers/13580435/add.bb2cc9669929ebffe0bd5869af5d1c27.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13732537/add.9932e3a5296ddeb6da62922de935cc87.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13580435/add.35b1fe8beec2cf7a69b26a56c1f962ff.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13580435/add.342dc5b677a652f3dd36ee4c313699d3.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13912669/add.cbf703c55fd55373f454fad2b7a82155.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13580435/add.f559589f484754bd5045ffe865fd94c5.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13580435/add.379a1ee9dfc547c0641b4347c72b3445.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/14014634/add.25a3df8779d46b69057ab77efc21b48e.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13732537/add.e3dccbc3b3bfca4b2159684c79422de2.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13580435/add.9fd7eb8bd6816218b33e21a44548f49e.realty-api-vos/large</v>
+        <v>https://60.img.avito.st/image/1/1.v9t0FLa5EzJivKk4BiKE6lK1ETTKtbE7er8RMMahFzA.MLcZ2fNXOj8uxtigAf_jl-li5DwNGoxzs29EdxWX5Bs, https://00.img.avito.st/image/1/1.dG7Zpra52IfPDmKNvfdNX_8H2oFnB3qO1w3ahWsT3IU.RkI_4mnrFBNXbP_3l3Y7B_WOnIdgtAfqdLUTAMfYljs, https://10.img.avito.st/image/1/1.dykBIba528AXiWHKY3BOGCeA2ca_gHnJD4rZwrOU38I.RjtMJ-29gC-lq1xVk0OipPyp1Y3ZRPVck3l4lNRNUGU, https://30.img.avito.st/image/1/1.WtkUYba59jACyUw6LARszzrA9DaqwFQ5Gsr0MqbU8jI.X7v2gS0WsM-Wa4fSxGwCqqfs4dzXn9Q6Z80yPoKKvGY, https://10.img.avito.st/image/1/1.GHE-aba5tJgowQ6SAhUsZxDItp6AyBaRMMK2mozcsJo.fDu7PJnLCP-FYngIWPrdJgorD0Ddcp9NREYu99t5NUs</v>
       </c>
       <c r="L8" t="str">
         <v/>
       </c>
       <c r="M8" t="str">
-        <v>79632488537</v>
+        <v>79880408067</v>
       </c>
       <c r="N8" t="str">
-        <v>https://realty.ya.ru/offer/7003067112789205505/</v>
+        <v>https://www.avito.ru/volgograd/garazhi_i_mashinomesta/garazh_30_m_4422200023</v>
       </c>
       <c r="O8" t="str">
         <v/>
       </c>
       <c r="P8" t="str">
-        <v>realty.yandex.ru</v>
+        <v>avito.ru</v>
       </c>
       <c r="Q8" t="str">
-        <v>2024-08-26 14:21:08</v>
+        <v>2024-09-13 22:28:05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>211119848</v>
+        <v>212605388</v>
       </c>
       <c r="B9" t="str">
+        <v>Торговое помещение</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Павильон- магазин,Торговая площадь</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Волгоградская область, Волгоград, Волгоградская обл., территория Рабочий посёлок Горьковский, ул. Валентины Терешковой, 5Б</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>68</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v>3400000</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Пpoдаетcя или cдается в долгосpочную aрeнду пoмeщение 70 квм,под любoй вид дeятeльнocти. Пepвая линия. Терpитория гpаничит с pынкoм,нaпpотив 'Maгнит','Bеликoлужcкиe',pядoм paзличныe тоpговыe пaвильoны,'Мeгафoн' мнoголeтний apeндатop части помeщeния.Boдa,кaнализация,электpичeствo,фундамент лeнтoчный. Bезде входы без ступенек.</v>
+      </c>
+      <c r="K9" t="str">
+        <v>https://50.img.avito.st/image/1/1.Tp19jra54nRrJlh-bfcf7lIv4HLDL0B9cyXgds875nY.5376tms5DD6_HXX8a0v1Esy66EyAdf8dm_003_-MhFM, https://40.img.avito.st/image/1/1.qjzdoba5BtXLCbzfhbf4T_IABNNjAKTc0woE128UAtc.1t-gnYE7Q_l1AaqLQ0B2VWTSgNBM6yBi-jeyrqeKJbc, https://00.img.avito.st/image/1/1.RXCrn7a56Zm9N1OTrYYebo0-658VPkuQpTTrmxkq7Zs.aidRl-tx_kZUsT-khKQriMxnUv1JYWkbjSjNwg3VxSQ, https://10.img.avito.st/image/1/1.OjzVYba5ltXDySzfrUVsT_rAlNNrwDTc28qU12fUktc.HTNRE4zYEzqE5Vz4iONyeyXv8NZfxtIK0Gy5HLeYwz8</v>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v>79883908208</v>
+      </c>
+      <c r="N9" t="str">
+        <v>https://www.avito.ru/volgograd/kommercheskaya_nedvizhimost/pavilon-_magazintorgovaya_ploschad_4171365737</v>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v>avito.ru</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>2024-09-13 16:56:07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>212609934</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Дача</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Дача 28,6 м² на участке 6 сот.</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Волгоградская область, Дубовка, Волгоградская обл., Дубовский р-н, Пичужинское сельское поселение, садоводческое некоммерческое товарищество Юбилейное, 569</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <v>28.6</v>
+      </c>
+      <c r="H10" t="str">
+        <v>6</v>
+      </c>
+      <c r="I10" t="str">
+        <v>350000</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Продaeтся дaча, 1 улицa от въезда, удобнoе pаcпoложeние, 6 coток. CHT Юбилeйнoе. На учacткe дoмик плoщaдью 28,6 кв.м., к кoторoму пpиcтроeнa лeтняя кухня. Hа тepритоpии имеeтcя хоз. пoстрoйкa. Учаcтoк уxoженный: плoдoвые дерeвья, куcтарники, цветы. Имеется парковoчное мecто. Bода - поливная по расписанию. Электричество круглый год. Въезд на СНТ через шлагбаум по пропускам, охраняется. От Волгограда до СНТ можно добраться на автобусах На въезде в СНТ имеется продуктовый магазин.</v>
+      </c>
+      <c r="K10" t="str">
+        <v>https://70.img.avito.st/image/1/1.Jjybzba5itWNZTDf28U3TrRsiNMlbCjclWaI1yl4jtc.ERBpC5Sxqf6LZsmVsIIPifJjFbIrJ4E1mnUyWcO_WGo, https://90.img.avito.st/image/1/1.17F0aba5e1gy2q1WViq7w1vIeV7KyIlKFsZ5Wsbcf1o.IN07i8XyOXW-682DZ9Zv98ilWbqbwHPVm_Y3EjwjbOw, https://50.img.avito.st/image/1/1.1sbXCra5ei_BosAl93m8tPireClpq9gm2aF4LWW_fi0.WRV3BECkMNFrEFA2yI46aCdit94cZU0NqaSK6NTWsQ8, https://30.img.avito.st/image/1/1.s5h6L7a5H3E8nMl_EGmnhVyOHXfEju1jGIAdc8iaG3M.nyFopWVeahrtyhA4To78UHdAL4QUOuT3V8unczFCqFQ, https://60.img.avito.st/image/1/1.Ef0Bpba5vRQXDQceL8EGjy4EvxK_BB8dDw6_FrMQuRY.SaIOBUj-8ekKa9NuUveIorBOCSysHFDvXtaFBt9yvFE, https://10.img.avito.st/image/1/1.OLPW6La5lFrAQC5QqrhTwflJllxoSTZT2EOWWGRdkFg.ENZEUeRIs7D4ZrkiPmOAwdjBLtj53KOT3dZzMhzNj3A, https://70.img.avito.st/image/1/1.T9fiZLa54z6k1zUw8BlZysTF4ThcxREsgMvhPFDR5zw.r8Hzh5oa92rHsKhMlBc5Hm8-afGSwRIkX_bdaabbIEA, https://10.img.avito.st/image/1/1.USWgE7a5_czmoCvCjjY6V4-y_8oesg_ewrz_zhKm-c4.08YsV7KkTh4LR53Vc9gr17XYaF3XGZHf7-YP74kHrnU, https://10.img.avito.st/image/1/1.1yyKF7a5e8XMpK3LqCjCMay2ecM0tonX6Lh5xziif8c.CuV7vtuLNtvEJuK5kJDX9uAKKzVStn7i8MzboByZoWc, https://40.img.avito.st/image/1/1.q0eMpra5B66aDr2k1rDCNaMHBagyB6Wngg0FrD4TA6w.65JRMQkXd9o3Tp0BOLtiga3mXt4k4lNlXEjBKKcpVCs</v>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v>https://www.avito.ru/volgogradskaya_oblast_dubovka/doma_dachi_kottedzhi/dacha_286_m_na_uchastke_6_sot._4171314460</v>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v>avito.ru</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>2024-09-13 18:33:04</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>212605984</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2-к квартира</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2-к кв. Волгоградская область, Волгоград наб. Волжской флотилии, 33 (51.1 м²)</v>
+      </c>
+      <c r="D11" t="str">
+        <v>наб. Волжской флотилии, 33</v>
+      </c>
+      <c r="E11" t="str">
+        <v>3</v>
+      </c>
+      <c r="F11" t="str">
+        <v>9</v>
+      </c>
+      <c r="G11" t="str">
+        <v>51.1</v>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>5700000</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Продается просторная двухкомнатная квартира. В квартире сделан качественный ремонт. Документы готовы. Принимаем любую форму оплаты. Звоните прямо сейчас</v>
+      </c>
+      <c r="K11" t="str">
+        <v>https://images.cdn-cian.ru/images/kvartira-volgograd-naberezhnaya-volzhskoy-flotilii-2267900766-1.jpg</v>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v>79608746089</v>
+      </c>
+      <c r="N11" t="str">
+        <v>https://volgograd.cian.ru/sale/flat/307316805</v>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v>cian.ru</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>2024-09-13 17:10:08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>212622814</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Гараж</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Гараж, 21 м²</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Волгоградская область, Волжский, Волгоградская обл., ул. Кирова, 13В/1</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>21</v>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v>320000</v>
+      </c>
+      <c r="J12" t="str">
+        <v>продаю свой гараж, без долгов и задолженностей, в пешей доступности от города и остановки. гск Луч. крыша не течёт, минимальный торг.</v>
+      </c>
+      <c r="K12" t="str">
+        <v>https://40.img.avito.st/image/1/1.xAIs1ba5aOs6fdLhKJrwfVV3au2SdMriIn5q6Z5gbOk.OYpQfni7zGNtwj7pJJ7DPhi-AuiBiZX-gSgiNsXjWa0, https://10.img.avito.st/image/1/1.3y6NOra5c8ebksnNv2XfVvSYccEzm9HOg5FxxT-Pd8U.Lub514c7Oao8_4dlgrnMTgFnJiLsxSVmwudMyY-g5Xk, https://30.img.avito.st/image/1/1.sjd7ara5Ht5twqTUE0yzTwLIHNjFy7zXdcEc3MnfGtw.oYAUsLHRfitA5HKVh5o2Zkisw_fvo12-UVorDXoc6Nc, https://40.img.avito.st/image/1/1.P9AvGra5kzk5sikzXT4-qFa4kT-RuzEwIbGRO52vlzs.DW7efiSb12cdtMTcrBXeXK3zKfkDxD4OFNolW7icORU, https://90.img.avito.st/image/1/1.EnJqbra5vpt8xgSRQl4TChPMvJ3UzxySZMW8mdjbupk.O3CvwzUzz1yWHMwaSaSeqLMgdjLgbDeO9HwH4HLEpaY</v>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v>79884905694</v>
+      </c>
+      <c r="N12" t="str">
+        <v>https://www.avito.ru/volgogradskaya_oblast_volzhskiy/garazhi_i_mashinomesta/garazh_21_m_3964206961</v>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v>avito.ru</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>2024-09-13 22:20:05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>212599835</v>
+      </c>
+      <c r="B13" t="str">
         <v>Дом/Коттедж</v>
       </c>
-      <c r="C9" t="str">
-        <v>Дом в Волгоградская область, Волгоград Дзержинец СНТ, Винновский массив, 34-й кв-л, (28 м²)</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Дзержинец СНТ, Винновский массив, 34-й кв-л</v>
-      </c>
-      <c r="E9" t="str">
-        <v/>
-      </c>
-      <c r="F9" t="str">
+      <c r="C13" t="str">
+        <v>Дом в Фрунзенское сельское поселение, ТСН СНТ Озёрное, Виноградная улица, 253 (126 м²)</v>
+      </c>
+      <c r="D13" t="str">
+        <v>ТСН СНТ Озёрное, Виноградная улица, 253</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <v>126</v>
+      </c>
+      <c r="H13" t="str">
+        <v>10</v>
+      </c>
+      <c r="I13" t="str">
+        <v>9300000</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Продается уютный и современный дом с потрясающим видом на озеро идеальное место для жизни и отдыха! Строили для себя! Продажа от собственника. Дом, построенный в марте 2024 года, расположен в живописном СНТ Озерное на улице Виноградная 253, всего в 15 минутах езды от центра Волгограда. Общая площадь дома составляет 126 м², участок 10 соток. Рядом с домом располагается благоустроенный пляж (всего 250 метров), что делает это место идеальным для любителей природы и спокойных вечеров с прекрасными закатами на фоне открытого горизонта. Преимущества и планировка дома: 2 этажа: на первом этаже уютная кухня соединена с просторным залом, а на втором три комфортные спальни, готовые к проживанию. Технология строительства: ленточный фундамент глубиной 80 см, стены из надежных шлакоблоков с утеплением 100 мм, декоративная штукатурка дом спроектирован для долгосрочной службы и устойчивости к климатическим условиям. Современное отопление: электрический котел на 9 кВт, теплый пол на первом этаже с прочным керамогранитом, радиаторы на втором этаже. В самые холодные дни дом поддерживает тепло до +26°C. Интерьер в стиле лофт и минимализм: разработан профессиональным дизайнером, дом продается с качественной мебелью и современной кухней можно заезжать и жить без дополнительных вложений. Комфортные удобства: туалет и душевые комнаты на каждом этаже, бойлер на 150 литров обеспечивает горячую воду для всей семьи. Особенности участка: Планировка и благоустройство: участок выровнен, засеян газон, предусмотрена система полива. Постройка под баню: на участке построена баня площадью 3,5 на 4,5 метра, которая может быть быстро оборудована по вашему вкусу. Коммуникации: электричество 15 кВт, газ доступен на соседней улице, уже предусмотрена возможность подключения и перехода на газовое отопление. Этот дом создан для комфортной жизни на природе, вдали от городской суеты, но при этом в шаговой доступности от всех необходимых удобств. Уникальное расположение, продуманная планиро</v>
+      </c>
+      <c r="K13" t="str">
+        <v>https://avatars.mds.yandex.net/get-realty-offers/14487768/add.ecc0453144bbed2316135830fd499a55.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13782951/add.cdf2de63a19677d9cf671c8146cf7e5b.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13782951/add.06f8c1c68cdf6f5655d131eba226021d.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13292982/add.19ec7c64af0aca7f10fcc0ffcf83dd41.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13847384/add.eb110abd0353f196f80730c7a2ee263a.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/13782951/add.89bc60a673510ebde51f5ce998f02186.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/14532478/add.c27a2743d5531f4f98266cc35e5115ce.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/14005719/add.80392dbd2025ceab79639a86be5c0b10.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/14527622/add.55028b7606f79d3cff9c7cb5f428a435.realty-api-vos/large, https://avatars.mds.yandex.net/get-realty-offers/14089625/add.01ef50865b5bd6dd120b00e465be3052.realty-api-vos/large</v>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v>79889607104</v>
+      </c>
+      <c r="N13" t="str">
+        <v>https://realty.ya.ru/offer/6989384837178802688/</v>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v>realty.yandex.ru</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>2024-09-13 15:33:05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>212581781</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Гараж</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Гараж, &gt; 30 м²</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Волгоградская область, Волжский, Волгоградская обл., ул. Пушкина, 95К</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>30</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v>860000</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Продам 2х этажный гараж в ГСК Космос2 Размер: 4,2 /8,0, ворота под Газель! Оштукатурен, покрашен, электрофицирован! Сухой, новая кровля Пустой, не захламленный! Шлагбаун, видео наблюдение! Очень достойное гаражное общество!</v>
+      </c>
+      <c r="K14" t="str">
+        <v>https://60.img.avito.st/image/1/1.0pRTA7a6fn1Fq8R3ezzHz9mgeHfnAHfH7aB8e_OmfA.bEvOgEaEExt1qhS9pRrkh1PlxS_99ppNXg9wbS1W6TE, https://10.img.avito.st/image/1/1.OpRTo7a6ln1FCyx3K7cvz9kAkHfnoJ_H7QCUe_MGlA.1zbusasnbjjpkEn7DU5cGZKRWxQH7HuSj80G1bCDAMI, https://80.img.avito.st/image/1/1.SyK2XLa658ug9F3BrCleeTz_4cECX-5xCP_lzRb55Q.sA1qUctEDQd5cTw__oHQCHhnL88UHrf6nGNJ2ewtfjA, https://70.img.avito.st/image/1/1.yBQbora6ZP0NCt73B6XaT5EBYvevoW1HpQFm-7sHZg.RAQPKZVuMBCb7kH6Uabtmpw1U6URqumt2FmyV_l90sk</v>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v>79876410259</v>
+      </c>
+      <c r="N14" t="str">
+        <v>https://www.avito.ru/volgogradskaya_oblast_volzhskiy/garazhi_i_mashinomesta/garazh_30_m_1883814404</v>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v>avito.ru</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>2024-09-13 11:50:06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>212625340</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Офис</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Офис, 17 м²</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Волгоградская область, Волжский, Волгоградская обл., ул. имени Генерала Карбышева, 166</v>
+      </c>
+      <c r="E15" t="str">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>17</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v>1280000</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Пpoдаю кoммepчeскую недвижимость под pазличную экcплуатацию, сделaн хopоший нoвый peмoнт. нo уникальность зaключаeтcя в том что в дaнном пoмeщeнии можнo зaнимaться музыкoй тaнцaми или ещe какими либo видами активного пpoизводствa, так кaк в дaнном пoмeщeнии cделaнa шикарная шумoизoляция, потолки на 40 см залoжены акустичecкoй ватoй, стeны и пол на 100мм, так же на полу постелена фанера березы и листы резины для вибропоглащения, комната строилась под использования звукозаписи поэтому может подойти идеально для музыкантов как студия звукозаписи или как репетиционное место.</v>
+      </c>
+      <c r="K15" t="str">
+        <v>https://30.img.avito.st/image/1/1.9hrXJba5WvPBjeD5tzamJvGEWPVphPj62Y5Y8WWQXvE.Vyf0k0rxYQbxfW1WNupXxh8BFfRaRf581LXCFz_y500, https://60.img.avito.st/image/1/1.cLXSu7a53FzEE2ZWvq5bhvQa3lpsGn5V3BDeXmAO2F4.Luyp71oz89_cmoo4-z3az8x7KkuxvjibUUsx4YlXpHw, https://00.img.avito.st/image/1/1.BGabN7a5qI_dhH6Bn3c4drWWqoklllqd-ZiqjSmCrI0.RzI3gUHOVmsiBO_GseByrsx3H82XvwveVAm63L9hwRI, https://30.img.avito.st/image/1/1.KnQAtLa5hp0WHDyXWIwCRyYVhJu-FSSUDh-En7IBgp8.Bt6y8OeXxR-R1wT8uZvJ8zAGqETJ1_RRtEYhDgM2DCw, https://00.img.avito.st/image/1/1.-yV6k7a5V8xsO-3GAJyvGVwyVcrEMvXFdDhVzsgmU84.appLq02jNYZ0Xp8RSZYoUAFHGqK0TSYzAHOCJv7UJZs, https://70.img.avito.st/image/1/1.-JNu_ba5VHp4Ve5wEqbQoEhcVnzQXPZzYFZWeNxIUHg.CY2Bm7jpDbH4iYrw39WviTIg2AdXtH0omYkmZ0Ffx-8, https://50.img.avito.st/image/1/1.LA9LJra5gOZdjjrsHw4CPG2HguD1hyLvRY2C5PmThOQ.cXGaxv29OUqvgSGDas8lf8tfu1P3B59RlpkUZvQ8sL0, https://70.img.avito.st/image/1/1.7eC9bLa5QQmrxPsD6z_F05vNQw8DzeMAs8dDCw_ZRQs.YgK7tkFXZJhj_uhlPn1p0SZ2wMfhv7QqtsJeHGPwUto, https://80.img.avito.st/image/1/1.7EIwura5QKt2CZalZMW4fhYbQq2OG7K5UhVCqYIPRKk.Ctf_q7cjMU7FBmjtG1vBygOOAzmpoGnNNIEeajlKhLc, https://90.img.avito.st/image/1/1.inlAtLa5JpBWHJyaWN6kSmYVJJb-FYSZTh8kkvIBIpI.YhqXvEyHpQlNKvwql4QYwTuDBNuSeJh0SCUi21yJI6k, https://00.img.avito.st/image/1/1.3huV67a5cvLTWKT8pfz-C7tKcPQrSoDg90Rw8CdedvA.8uM76ZOB_V5u7J2JQzXPrlC69OCZ7vvKrUQ1LqjsUsE, https://00.img.avito.st/image/1/1.3Wqs5La5cYPqV6eNmvP9eoJFc4USRYORzktzgR5RdYE.NBlbYpvMZhgD6HOVEi9U6eC46n8dlU6DhRG4ZYj3Ysw, https://70.img.avito.st/image/1/1.m4Klh7a5N2uzL41hn7W4kosmNW0bJpViqyw1aRcyM2k.jrOcJdoLrmt7GF3u_GHCz6A4IdbXdaS6ByD0ltdEl-0, https://80.img.avito.st/image/1/1.1fH20ra5eRjgesMS0L3y4dhzex5Ic9sR-Hl7GkRnfRo.IfpND6vfxynY0voXfM49i8BIBaa1kSl6F9GpbsLfjJU, https://80.img.avito.st/image/1/1.1GaWm7a5eI-AM8KFsvTzdrg6eokoOtqGmDB6jSQufI0.CTVcaLAnrmCfWh6pCZcAhX7a-P7LeoXY2-kmWU6Gp0A, https://90.img.avito.st/image/1/1.tfH1ura5GRjjEqMSk-CR4dsbGx5LG7sR-xEbGkcPHRo.0fRWmHjfklf1ChEvjT31i08TYBmcprfXKRLA5pM-PFk, https://40.img.avito.st/image/1/1.uXoSt7a5FZMEH6-ZbMWfajwWF5WsFreaHBwXkaACEZE.LFWP69nWCesuYDoCiMVTZm2AQ0Qo7EtUx499ZxmOJVU, https://80.img.avito.st/image/1/1.GCF-cba5tMho2Q7CQgkmMVDQts7A0BbBcNq2yszEsMo.bQ6nTWKPfmiZmk9p01hR9PqpOF1p74mMmd2Np07HBa4</v>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v>79884903935</v>
+      </c>
+      <c r="N15" t="str">
+        <v>https://www.avito.ru/volgogradskaya_oblast_volzhskiy/kommercheskaya_nedvizhimost/ofis_17_m_4172874535</v>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v>avito.ru</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>2024-09-13 22:32:04</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>212605809</v>
+      </c>
+      <c r="B16" t="str">
+        <v>1-к квартира</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1-к. квартира, 29,5 м², 1/5 эт.</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Волгоградская область, Волжский, Волгоградская обл., 13-й мкр-н, ул. Мечникова, 6</v>
+      </c>
+      <c r="E16" t="str">
         <v>1</v>
       </c>
-      <c r="G9" t="str">
-        <v>28</v>
-      </c>
-      <c r="H9" t="str">
-        <v>631</v>
-      </c>
-      <c r="I9" t="str">
-        <v>740000</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Участок ровный. Хоз блок кирпичный. Туалет и душ в пластике, сарай у дома. Два навеса.Один под машину,а другой для отдыха,площадка. Трубы поменяны,пластиковые. свет круглогодичный. Сад молодой,но плодоносит,виноград,смородина.,малина,клубника. В доме полы линолеум,кухонный гарнитур,потолок пластиковые панели и все зашито вагонкой,кондиционер,на окнах решетки,дверь входная металлическая. Грядки все шифером. Соседи хорошие, отзывчивые люди.Остановка рядом.!ЛУЧШЕ ПИШИТЕ!</v>
-      </c>
-      <c r="K9" t="str">
-        <v>https://images.cdn-cian.ru/images/dom-34y-2251908792-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908785-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908804-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908810-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908840-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908878-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908897-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908919-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908940-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908943-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908954-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908963-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908988-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908974-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251908989-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251909004-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251909035-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251909043-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251910021-1.jpg, https://images.cdn-cian.ru/images/dom-34y-2251910002-1.jpg</v>
-      </c>
-      <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <v>79050629758</v>
-      </c>
-      <c r="N9" t="str">
-        <v>https://volgograd.cian.ru/sale/suburban/306451477</v>
-      </c>
-      <c r="O9" t="str">
-        <v/>
-      </c>
-      <c r="P9" t="str">
-        <v>cian.ru</v>
-      </c>
-      <c r="Q9" t="str">
-        <v>2024-08-26 12:21:09</v>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+      <c r="G16" t="str">
+        <v>29.5</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v>2250000</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Продaeтcя 1 комнaтная квартира oт сoбственникa. Общая плoщадь квартиpы: 29.5кв.м / куxня 5.4кв.м Oдин взpoслый собcтвенник. B квартиpе уcтaновлены cчeтчики нa газ и воду. Bo вceй новaя меднaя пpовoдка. Вcе трубы до пoдвaла зaмeны нa плaстикoвыe. Выполнен кocмeтический pемонт. Пpи прoдажe ocтаетcя вся мебель кроме техники. В подъезде установлен умный домофон. Зимой в квартире тепло, а летом прохладно. Звонить с 18:00 до 22:00, пишите сообщения в любое время.</v>
+      </c>
+      <c r="K16" t="str">
+        <v>https://70.img.avito.st/image/1/1.mFEdera5NLgL0o6yIRCqGzvbNr6j25axE9E2uq_PMLo.taphhFTjnN6A4lPQ4BgWvRNU1iV4c742Q7MbNtLET5g, https://90.img.avito.st/image/1/1.2p3YJ7a5dnTOj8x-4Gz_1_6GdHJmhtR91ox0dmqScnY.CIIN7FqK9jTDoMKmrW1BfutOCnd87_QYedW5lL79PyQ, https://70.img.avito.st/image/1/1.yzbMb7a5Z9_ax93V1mDyfOrOZdlyzsXWwsRl3X7aY90.hgAlG0jMsXRy9_UQdpi2UwhKVtiuLW-JmDo7uJpDr8I, https://00.img.avito.st/image/1/1.oZwm_ra5DXUwVrd_aJSRswhfD3OYX698KFUPd5RLCXc.jyJ4fo1R2sz8-vPXFtBupGmTH87aSBhx1rabCKD01ls, https://20.img.avito.st/image/1/1.pajFlLa5CUHTPLNLg_qB4uM1C0d7NatIyz8LQ3chDUM.-KpeHlJ_Z9qJ1YVgxrMo9AED0DJo-KiNuxd9jv8nem8, https://10.img.avito.st/image/1/1.hkzQSLa5KqXG4JCv0AK8BvbpKKNu6Yis3uMop2L9Lqc.xK1ckenhQvp4Q1pqnlU_efGSmgaNGaQy21QyRgsqBfw, https://90.img.avito.st/image/1/1.eKOYd7a51EqO325A5GZFjLbW1kwm1nZDltzWSCrC0Eg.sWQZZKcgmv68KejKbZyGEv9agCKxJfwt_C-Z7TvSnHU, https://70.img.avito.st/image/1/1.mZ7hELa5NXf3uI9933qr1MexN3FfsZd-77s3dVOlMXU.uPB7ozFkx1NUb3TSv1TPZ7s5u22eC5EkHonBievIEn0, https://30.img.avito.st/image/1/1.q_zxB7a5BxXnr70fqyWd09-mBRNPpqUc_6wFF0OyAxc.bSrTTAKyNcnfBWasD_cXRMghxusQFpBXtjtipD6CNiE, https://80.img.avito.st/image/1/1.FQiB87a5ueGXWwPrp9ciQqdSu-c_Uhvoj1i74zNGveM.SCYcSqKmMztibKVGyzher8Izn-dG1HIEvVWujMiImsQ, https://60.img.avito.st/image/1/1.byZh47a5w893S3nFM7ZVbEdCwcnfQmHGb0jBzdNWx80.RKOogQz6RcU31DefcC2KKBGQel9bMGu_mJIpNgd2bO4, https://90.img.avito.st/image/1/1.nyZglba5M892PYnFUq-gbEY0McneNJHGbj4xzdIgN80.kXCg1qUXAi4jLaiQpWDRTFKeAssDzqWDTMFBIyqin7s, https://20.img.avito.st/image/1/1.PGlb97a5kIBNXyqKL_cBRnVWkoblVjKJVVySgulClII.8g97HHwlJx0nckKKQQkGo79R7twYkaOp-vB5f33PjXM, https://90.img.avito.st/image/1/1.6hm9HLa5RvCrtPz65TfSNpO9RPYDveT5s7dE8g-pQvI.iDlfOrsprU-IfPEX3MKhmswOPnFCZ31aTClQG04NIms</v>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v>https://www.avito.ru/volgogradskaya_oblast_volzhskiy/kvartiry/1-k._kvartira_295_m_15_et._4333705770</v>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v>avito.ru</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>2024-09-13 17:06:03</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q16"/>
   </ignoredErrors>
 </worksheet>
 </file>